--- a/medicine/Psychotrope/La_Cagole/La_Cagole.xlsx
+++ b/medicine/Psychotrope/La_Cagole/La_Cagole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Cagole est une marque déposée de bière française créée en 2003 à Marseille par Yves Darnaud. Cette bière est commercialisée par la SARL Midi et Demi.
-Son nom fait référence au terme régional provençal « cagole », qui désigne de manière familière et péjorative une femme qui se fait remarquer par son attitude peu discrète (langage, tenue vestimentaire affriolante, etc.)[1].
+Son nom fait référence au terme régional provençal « cagole », qui désigne de manière familière et péjorative une femme qui se fait remarquer par son attitude peu discrète (langage, tenue vestimentaire affriolante, etc.).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Cagole est une bière blonde pils qui se veut, selon son créateur Yves Darnaud, « très peu amère [et] légère », avec « un léger arôme de miel »[2]. Elle est annoncée faiblement alcoolisée (4,7°). Elle est produite en bouteilles de 33cl et 75cl, ainsi qu'en canettes (métal) de 50cl, à 5,5°.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cagole est une bière blonde pils qui se veut, selon son créateur Yves Darnaud, « très peu amère [et] légère », avec « un léger arôme de miel ». Elle est annoncée faiblement alcoolisée (4,7°). Elle est produite en bouteilles de 33cl et 75cl, ainsi qu'en canettes (métal) de 50cl, à 5,5°.
 Il existe aussi une Cagole blanche produite en bouteilles de 33cl et 75cl, et une blonde moins alcoolisée (2,7°), la Cagole spécial cagnard, produite en bouteille de 33cl.
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bière La Cagole a été inventée en référence à la représentation populaire du vieux Marseille de Marcel Pagnol, ainsi qu'aux précédentes bières brassées à Marseille comme la Phénix, la Velten et la Marx[3].
-La production industrielle a démarré en République tchèque[3], à Nymburk, où 80 % des 2 millions de bouteilles de 33 cl de La Cagole produites en 2008 étaient fabriquées[2]. La Cagole a ensuite été produite dans une brasserie attenante à un restaurant[3] marseillais, La fabrique de la Cagole[4], avant d'être produite dans le Nord de la France, à Douai[5],[6], dans la brasserie industrielle des Brasseurs de Gayant[7].
-Le 5 décembre 2011 la cagole est orpheline, son créateur Yves Darnaud est mort à 47 ans[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bière La Cagole a été inventée en référence à la représentation populaire du vieux Marseille de Marcel Pagnol, ainsi qu'aux précédentes bières brassées à Marseille comme la Phénix, la Velten et la Marx.
+La production industrielle a démarré en République tchèque, à Nymburk, où 80 % des 2 millions de bouteilles de 33 cl de La Cagole produites en 2008 étaient fabriquées. La Cagole a ensuite été produite dans une brasserie attenante à un restaurant marseillais, La fabrique de la Cagole, avant d'être produite dans le Nord de la France, à Douai dans la brasserie industrielle des Brasseurs de Gayant.
+Le 5 décembre 2011 la cagole est orpheline, son créateur Yves Darnaud est mort à 47 ans.
 </t>
         </is>
       </c>
